--- a/Output/NYC_CHP_DATA.xlsx
+++ b/Output/NYC_CHP_DATA.xlsx
@@ -1768,352 +1768,352 @@
     <t>FluVacc</t>
   </si>
   <si>
-    <t>c("8", "2", "9") 8c("8", "2", "9") 2c("8", "2", "9") 9</t>
-  </si>
-  <si>
-    <t>c("9", "5", "8") 9c("9", "5", "8") 5c("9", "5", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "3", "0", "8") 1c("1", "3", "0", "8") 3c("1", "3", "0", "8") 0c("1", "3", "0", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "1", "8", "3") 1c("1", "1", "8", "3") 1c("1", "1", "8", "3") 8c("1", "1", "8", "3") 3</t>
-  </si>
-  <si>
-    <t>c("8", "3", "4") 8c("8", "3", "4") 3c("8", "3", "4") 4</t>
-  </si>
-  <si>
-    <t>c("7", "0", "8") 7c("7", "0", "8") 0c("7", "0", "8") 8</t>
-  </si>
-  <si>
-    <t>c("7", "8", "2") 7c("7", "8", "2") 8c("7", "8", "2") 2</t>
-  </si>
-  <si>
-    <t>c("9", "9", "6") 9c("9", "9", "6") 9c("9", "9", "6") 6</t>
-  </si>
-  <si>
-    <t>c("8", "9", "2") 8c("8", "9", "2") 9c("8", "9", "2") 2</t>
-  </si>
-  <si>
-    <t>c("8", "6", "9") 8c("8", "6", "9") 6c("8", "6", "9") 9</t>
-  </si>
-  <si>
-    <t>c("7", "4", "9") 7c("7", "4", "9") 4c("7", "4", "9") 9</t>
-  </si>
-  <si>
-    <t>c("1", "3", "4", "5") 1c("1", "3", "4", "5") 3c("1", "3", "4", "5") 4c("1", "3", "4", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "0", "8", "4") 1c("1", "0", "8", "4") 0c("1", "0", "8", "4") 8c("1", "0", "8", "4") 4</t>
-  </si>
-  <si>
-    <t>c("1", "6", "0", "2") 1c("1", "6", "0", "2") 6c("1", "6", "0", "2") 0c("1", "6", "0", "2") 2</t>
-  </si>
-  <si>
-    <t>c("6", "2", "8") 6c("6", "2", "8") 2c("6", "2", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "1", "8", "1") 1c("1", "1", "8", "1") 1c("1", "1", "8", "1") 8c("1", "1", "8", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "1", "8", "0") 1c("1", "1", "8", "0") 1c("1", "1", "8", "0") 8c("1", "1", "8", "0") 0</t>
-  </si>
-  <si>
-    <t>c("5", "4", "7") 5c("5", "4", "7") 4c("5", "4", "7") 7</t>
-  </si>
-  <si>
-    <t>c("7", "5", "4") 7c("7", "5", "4") 5c("7", "5", "4") 4</t>
-  </si>
-  <si>
-    <t>c("6", "5", "9") 6c("6", "5", "9") 5c("6", "5", "9") 9</t>
-  </si>
-  <si>
-    <t>c("6", "8", "8") 6c("6", "8", "8") 8c("6", "8", "8") 8</t>
-  </si>
-  <si>
-    <t>c("8", "2", "0") 8c("8", "2", "0") 2c("8", "2", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "2", "0", "7") 1c("1", "2", "0", "7") 2c("1", "2", "0", "7") 0c("1", "2", "0", "7") 7</t>
-  </si>
-  <si>
-    <t>c("4", "2", "6") 4c("4", "2", "6") 2c("4", "2", "6") 6</t>
-  </si>
-  <si>
-    <t>c("1", "3", "3", "9") 1c("1", "3", "3", "9") 3c("1", "3", "3", "9") 3c("1", "3", "3", "9") 9</t>
-  </si>
-  <si>
-    <t>c("2", "2", "6", "2") 2c("2", "2", "6", "2") 2c("2", "2", "6", "2") 6c("2", "2", "6", "2") 2</t>
-  </si>
-  <si>
-    <t>c("2", "2", "4", "0") 2c("2", "2", "4", "0") 2c("2", "2", "4", "0") 4c("2", "2", "4", "0") 0</t>
-  </si>
-  <si>
-    <t>c("6", "9", "8") 6c("6", "9", "8") 9c("6", "9", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "6", "3", "1") 1c("1", "6", "3", "1") 6c("1", "6", "3", "1") 3c("1", "6", "3", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "2", "5", "0") 1c("1", "2", "5", "0") 2c("1", "2", "5", "0") 5c("1", "2", "5", "0") 0</t>
-  </si>
-  <si>
-    <t>c("2", "0", "9", "9") 2c("2", "0", "9", "9") 0c("2", "0", "9", "9") 9c("2", "0", "9", "9") 9</t>
-  </si>
-  <si>
-    <t>c("2", "8", "5", "5") 2c("2", "8", "5", "5") 8c("2", "8", "5", "5") 5c("2", "8", "5", "5") 5</t>
-  </si>
-  <si>
-    <t>c("2", "5", "7", "3") 2c("2", "5", "7", "3") 5c("2", "5", "7", "3") 7c("2", "5", "7", "3") 3</t>
-  </si>
-  <si>
-    <t>c("2", "3", "0", "7") 2c("2", "3", "0", "7") 3c("2", "3", "0", "7") 0c("2", "3", "0", "7") 7</t>
-  </si>
-  <si>
-    <t>c("2", "9", "5", "7") 2c("2", "9", "5", "7") 9c("2", "9", "5", "7") 5c("2", "9", "5", "7") 7</t>
-  </si>
-  <si>
-    <t>c("2", "7", "0", "9") 2c("2", "7", "0", "9") 7c("2", "7", "0", "9") 0c("2", "7", "0", "9") 9</t>
-  </si>
-  <si>
-    <t>c("1", "8", "9", "1") 1c("1", "8", "9", "1") 8c("1", "8", "9", "1") 9c("1", "8", "9", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "6", "1", "3") 1c("1", "6", "1", "3") 6c("1", "6", "1", "3") 1c("1", "6", "1", "3") 3</t>
-  </si>
-  <si>
-    <t>c("1", "1", "8", "5") 1c("1", "1", "8", "5") 1c("1", "1", "8", "5") 8c("1", "1", "8", "5") 5</t>
-  </si>
-  <si>
-    <t>c("3", "1", "3", "8") 3c("3", "1", "3", "8") 1c("3", "1", "3", "8") 3c("3", "1", "3", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "5", "1", "5") 1c("1", "5", "1", "5") 5c("1", "5", "1", "5") 1c("1", "5", "1", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "7", "8", "6") 1c("1", "7", "8", "6") 7c("1", "7", "8", "6") 8c("1", "7", "8", "6") 6</t>
-  </si>
-  <si>
-    <t>c("1", "2", "3", "0") 1c("1", "2", "3", "0") 2c("1", "2", "3", "0") 3c("1", "2", "3", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "4", "0", "7") 1c("1", "4", "0", "7") 4c("1", "4", "0", "7") 0c("1", "4", "0", "7") 7</t>
-  </si>
-  <si>
-    <t>c("2", "2", "4", "5") 2c("2", "2", "4", "5") 2c("2", "2", "4", "5") 4c("2", "2", "4", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "8", "9", "7") 1c("1", "8", "9", "7") 8c("1", "8", "9", "7") 9c("1", "8", "9", "7") 7</t>
-  </si>
-  <si>
-    <t>c("2", "0", "6", "8") 2c("2", "0", "6", "8") 0c("2", "0", "6", "8") 6c("2", "0", "6", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "3", "3", "8") 1c("1", "3", "3", "8") 3c("1", "3", "3", "8") 3c("1", "3", "3", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "3", "4", "2") 1c("1", "3", "4", "2") 3c("1", "3", "4", "2") 4c("1", "3", "4", "2") 2</t>
-  </si>
-  <si>
-    <t>c("1", "4", "3", "9") 1c("1", "4", "3", "9") 4c("1", "4", "3", "9") 3c("1", "4", "3", "9") 9</t>
-  </si>
-  <si>
-    <t>c("2", "7", "5", "5") 2c("2", "7", "5", "5") 7c("2", "7", "5", "5") 5c("2", "7", "5", "5") 5</t>
-  </si>
-  <si>
-    <t>c("9", "9", "0") 9c("9", "9", "0") 9c("9", "9", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "3", "0", "7") 1c("1", "3", "0", "7") 3c("1", "3", "0", "7") 0c("1", "3", "0", "7") 7</t>
-  </si>
-  <si>
-    <t>c("1", "5", "2", "4") 1c("1", "5", "2", "4") 5c("1", "5", "2", "4") 2c("1", "5", "2", "4") 4</t>
-  </si>
-  <si>
-    <t>c("9", "5", "1") 9c("9", "5", "1") 5c("9", "5", "1") 1</t>
-  </si>
-  <si>
-    <t>c("7", "4", "0") 7c("7", "4", "0") 4c("7", "4", "0") 0</t>
-  </si>
-  <si>
-    <t>c("7", "9", "8") 7c("7", "9", "8") 9c("7", "9", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "1", "3", "1") 1c("1", "1", "3", "1") 1c("1", "1", "3", "1") 3c("1", "1", "3", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "5", "3", "0") 1c("1", "5", "3", "0") 5c("1", "5", "3", "0") 3c("1", "5", "3", "0") 0</t>
-  </si>
-  <si>
-    <t>c("3", "1", "7", "1") 3c("3", "1", "7", "1") 1c("3", "1", "7", "1") 7c("3", "1", "7", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "8", "5", "9") 1c("1", "8", "5", "9") 8c("1", "8", "5", "9") 5c("1", "8", "5", "9") 9</t>
-  </si>
-  <si>
-    <t>c("1", "4", "6", "0") 1c("1", "4", "6", "0") 4c("1", "4", "6", "0") 6c("1", "4", "6", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "3", "0", "1") 1c("1", "3", "0", "1") 3c("1", "3", "0", "1") 0c("1", "3", "0", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "2", "7", "3") 1c("1", "2", "7", "3") 2c("1", "2", "7", "3") 7c("1", "2", "7", "3") 3</t>
-  </si>
-  <si>
-    <t>c("1", "9", "5", "0") 1c("1", "9", "5", "0") 9c("1", "9", "5", "0") 5c("1", "9", "5", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "7", "3", "1") 1c("1", "7", "3", "1") 7c("1", "7", "3", "1") 3c("1", "7", "3", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "3", "8", "1") 1c("1", "3", "8", "1") 3c("1", "3", "8", "1") 8c("1", "3", "8", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "4", "1", "4") 1c("1", "4", "1", "4") 4c("1", "4", "1", "4") 1c("1", "4", "1", "4") 4</t>
-  </si>
-  <si>
-    <t>c("1", "4", "9", "5") 1c("1", "4", "9", "5") 4c("1", "4", "9", "5") 9c("1", "4", "9", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "5", "5", "7") 1c("1", "5", "5", "7") 5c("1", "5", "5", "7") 5c("1", "5", "5", "7") 7</t>
-  </si>
-  <si>
-    <t>c("6", "6", "7") 6c("6", "6", "7") 6c("6", "6", "7") 7</t>
-  </si>
-  <si>
-    <t>c("8", "8", "5") 8c("8", "8", "5") 8c("8", "8", "5") 5</t>
-  </si>
-  <si>
-    <t>c("8", "3", "5") 8c("8", "3", "5") 3c("8", "3", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "3", "8", "0") 1c("1", "3", "8", "0") 3c("1", "3", "8", "0") 8c("1", "3", "8", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "7", "2", "8") 1c("1", "7", "2", "8") 7c("1", "7", "2", "8") 2c("1", "7", "2", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "2", "3", "2") 1c("1", "2", "3", "2") 2c("1", "2", "3", "2") 3c("1", "2", "3", "2") 2</t>
-  </si>
-  <si>
-    <t>c("2", "0", "9", "8") 2c("2", "0", "9", "8") 0c("2", "0", "9", "8") 9c("2", "0", "9", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "8", "7", "2") 1c("1", "8", "7", "2") 8c("1", "8", "7", "2") 7c("1", "8", "7", "2") 2</t>
-  </si>
-  <si>
-    <t>c("2", "0", "1", "9") 2c("2", "0", "1", "9") 0c("2", "0", "1", "9") 1c("2", "0", "1", "9") 9</t>
-  </si>
-  <si>
-    <t>c("1", "6", "6", "8") 1c("1", "6", "6", "8") 6c("1", "6", "6", "8") 6c("1", "6", "6", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "8", "3", "7") 1c("1", "8", "3", "7") 8c("1", "8", "3", "7") 3c("1", "8", "3", "7") 7</t>
-  </si>
-  <si>
-    <t>c("1", "7", "0", "1") 1c("1", "7", "0", "1") 7c("1", "7", "0", "1") 0c("1", "7", "0", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "4", "2", "0") 1c("1", "4", "2", "0") 4c("1", "4", "2", "0") 2c("1", "4", "2", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "7", "7", "5") 1c("1", "7", "7", "5") 7c("1", "7", "7", "5") 7c("1", "7", "7", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "3", "3", "3") 1c("1", "3", "3", "3") 3c("1", "3", "3", "3") 3c("1", "3", "3", "3") 3</t>
-  </si>
-  <si>
-    <t>c("2", "0", "2", "0") 2c("2", "0", "2", "0") 0c("2", "0", "2", "0") 2c("2", "0", "2", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "3", "1", "5") 1c("1", "3", "1", "5") 3c("1", "3", "1", "5") 1c("1", "3", "1", "5") 5</t>
-  </si>
-  <si>
-    <t>c("2", "0", "9", "7") 2c("2", "0", "9", "7") 0c("2", "0", "9", "7") 9c("2", "0", "9", "7") 7</t>
-  </si>
-  <si>
-    <t>c("1", "8", "0", "2") 1c("1", "8", "0", "2") 8c("1", "8", "0", "2") 0c("1", "8", "0", "2") 2</t>
-  </si>
-  <si>
-    <t>c("2", "0", "8", "0") 2c("2", "0", "8", "0") 0c("2", "0", "8", "0") 8c("2", "0", "8", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "1", "6", "8") 1c("1", "1", "6", "8") 1c("1", "1", "6", "8") 6c("1", "1", "6", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "2", "5", "7") 1c("1", "2", "5", "7") 2c("1", "2", "5", "7") 5c("1", "2", "5", "7") 7</t>
-  </si>
-  <si>
-    <t>c("1", "5", "0", "5") 1c("1", "5", "0", "5") 5c("1", "5", "0", "5") 0c("1", "5", "0", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "3", "6", "1") 1c("1", "3", "6", "1") 3c("1", "3", "6", "1") 6c("1", "3", "6", "1") 1</t>
-  </si>
-  <si>
-    <t>c("1", "3", "2", "8") 1c("1", "3", "2", "8") 3c("1", "3", "2", "8") 2c("1", "3", "2", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "9", "4", "0") 1c("1", "9", "4", "0") 9c("1", "9", "4", "0") 4c("1", "9", "4", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "7", "4", "0") 1c("1", "7", "4", "0") 7c("1", "7", "4", "0") 4c("1", "7", "4", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "6", "3", "2") 1c("1", "6", "3", "2") 6c("1", "6", "3", "2") 3c("1", "6", "3", "2") 2</t>
-  </si>
-  <si>
-    <t>c("1", "0", "7", "6") 1c("1", "0", "7", "6") 0c("1", "0", "7", "6") 7c("1", "0", "7", "6") 6</t>
-  </si>
-  <si>
-    <t>c("1", "1", "1", "2") 1c("1", "1", "1", "2") 1c("1", "1", "1", "2") 1c("1", "1", "1", "2") 2</t>
-  </si>
-  <si>
-    <t>c("1", "7", "4", "8") 1c("1", "7", "4", "8") 7c("1", "7", "4", "8") 4c("1", "7", "4", "8") 8</t>
-  </si>
-  <si>
-    <t>c("1", "8", "3", "0") 1c("1", "8", "3", "0") 8c("1", "8", "3", "0") 3c("1", "8", "3", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "1", "1", "0") 1c("1", "1", "1", "0") 1c("1", "1", "1", "0") 1c("1", "1", "1", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "2", "6", "1") 1c("1", "2", "6", "1") 2c("1", "2", "6", "1") 6c("1", "2", "6", "1") 1</t>
-  </si>
-  <si>
-    <t>c("8", "1", "2") 8c("8", "1", "2") 1c("8", "1", "2") 2</t>
-  </si>
-  <si>
-    <t>c("1", "2", "7", "0") 1c("1", "2", "7", "0") 2c("1", "2", "7", "0") 7c("1", "2", "7", "0") 0</t>
-  </si>
-  <si>
-    <t>c("1", "4", "7", "0") 1c("1", "4", "7", "0") 4c("1", "4", "7", "0") 7c("1", "4", "7", "0") 0</t>
-  </si>
-  <si>
-    <t>c("8", "0", "1") 8c("8", "0", "1") 0c("8", "0", "1") 1</t>
-  </si>
-  <si>
-    <t>c("9", "4", "8") 9c("9", "4", "8") 4c("9", "4", "8") 8</t>
-  </si>
-  <si>
-    <t>c("2", "0", "3", "5") 2c("2", "0", "3", "5") 0c("2", "0", "3", "5") 3c("2", "0", "3", "5") 5</t>
-  </si>
-  <si>
-    <t>c("1", "7", "6", "7") 1c("1", "7", "6", "7") 7c("1", "7", "6", "7") 6c("1", "7", "6", "7") 7</t>
-  </si>
-  <si>
-    <t>c("1", "8", "0", "0") 1c("1", "8", "0", "0") 8c("1", "8", "0", "0") 0c("1", "8", "0", "0") 0</t>
-  </si>
-  <si>
-    <t>c("2", "0", "1", "4") 2c("2", "0", "1", "4") 0c("2", "0", "1", "4") 1c("2", "0", "1", "4") 4</t>
-  </si>
-  <si>
-    <t>c("1", "5", "7", "9") 1c("1", "5", "7", "9") 5c("1", "5", "7", "9") 7c("1", "5", "7", "9") 9</t>
-  </si>
-  <si>
-    <t>c("1", "8", "7", "6") 1c("1", "8", "7", "6") 8c("1", "8", "7", "6") 7c("1", "8", "7", "6") 6</t>
-  </si>
-  <si>
-    <t>c("1", "2", "8", "2") 1c("1", "2", "8", "2") 2c("1", "2", "8", "2") 8c("1", "2", "8", "2") 2</t>
+    <t>829</t>
+  </si>
+  <si>
+    <t>958</t>
+  </si>
+  <si>
+    <t>1308</t>
+  </si>
+  <si>
+    <t>1183</t>
+  </si>
+  <si>
+    <t>834</t>
+  </si>
+  <si>
+    <t>708</t>
+  </si>
+  <si>
+    <t>782</t>
+  </si>
+  <si>
+    <t>996</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>869</t>
+  </si>
+  <si>
+    <t>749</t>
+  </si>
+  <si>
+    <t>1345</t>
+  </si>
+  <si>
+    <t>1084</t>
+  </si>
+  <si>
+    <t>1602</t>
+  </si>
+  <si>
+    <t>628</t>
+  </si>
+  <si>
+    <t>1181</t>
+  </si>
+  <si>
+    <t>1180</t>
+  </si>
+  <si>
+    <t>547</t>
+  </si>
+  <si>
+    <t>754</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>688</t>
+  </si>
+  <si>
+    <t>820</t>
+  </si>
+  <si>
+    <t>1207</t>
+  </si>
+  <si>
+    <t>426</t>
+  </si>
+  <si>
+    <t>1339</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>2240</t>
+  </si>
+  <si>
+    <t>698</t>
+  </si>
+  <si>
+    <t>1631</t>
+  </si>
+  <si>
+    <t>1250</t>
+  </si>
+  <si>
+    <t>2099</t>
+  </si>
+  <si>
+    <t>2855</t>
+  </si>
+  <si>
+    <t>2573</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2957</t>
+  </si>
+  <si>
+    <t>2709</t>
+  </si>
+  <si>
+    <t>1891</t>
+  </si>
+  <si>
+    <t>1613</t>
+  </si>
+  <si>
+    <t>1185</t>
+  </si>
+  <si>
+    <t>3138</t>
+  </si>
+  <si>
+    <t>1515</t>
+  </si>
+  <si>
+    <t>1786</t>
+  </si>
+  <si>
+    <t>1230</t>
+  </si>
+  <si>
+    <t>1407</t>
+  </si>
+  <si>
+    <t>2245</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>2068</t>
+  </si>
+  <si>
+    <t>1338</t>
+  </si>
+  <si>
+    <t>1342</t>
+  </si>
+  <si>
+    <t>1439</t>
+  </si>
+  <si>
+    <t>2755</t>
+  </si>
+  <si>
+    <t>990</t>
+  </si>
+  <si>
+    <t>1307</t>
+  </si>
+  <si>
+    <t>1524</t>
+  </si>
+  <si>
+    <t>951</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>798</t>
+  </si>
+  <si>
+    <t>1131</t>
+  </si>
+  <si>
+    <t>1530</t>
+  </si>
+  <si>
+    <t>3171</t>
+  </si>
+  <si>
+    <t>1859</t>
+  </si>
+  <si>
+    <t>1460</t>
+  </si>
+  <si>
+    <t>1301</t>
+  </si>
+  <si>
+    <t>1273</t>
+  </si>
+  <si>
+    <t>1950</t>
+  </si>
+  <si>
+    <t>1731</t>
+  </si>
+  <si>
+    <t>1381</t>
+  </si>
+  <si>
+    <t>1414</t>
+  </si>
+  <si>
+    <t>1495</t>
+  </si>
+  <si>
+    <t>1557</t>
+  </si>
+  <si>
+    <t>667</t>
+  </si>
+  <si>
+    <t>885</t>
+  </si>
+  <si>
+    <t>835</t>
+  </si>
+  <si>
+    <t>1380</t>
+  </si>
+  <si>
+    <t>1728</t>
+  </si>
+  <si>
+    <t>1232</t>
+  </si>
+  <si>
+    <t>2098</t>
+  </si>
+  <si>
+    <t>1872</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>1668</t>
+  </si>
+  <si>
+    <t>1837</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1420</t>
+  </si>
+  <si>
+    <t>1775</t>
+  </si>
+  <si>
+    <t>1333</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>1315</t>
+  </si>
+  <si>
+    <t>2097</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>2080</t>
+  </si>
+  <si>
+    <t>1168</t>
+  </si>
+  <si>
+    <t>1257</t>
+  </si>
+  <si>
+    <t>1505</t>
+  </si>
+  <si>
+    <t>1361</t>
+  </si>
+  <si>
+    <t>1328</t>
+  </si>
+  <si>
+    <t>1940</t>
+  </si>
+  <si>
+    <t>1740</t>
+  </si>
+  <si>
+    <t>1632</t>
+  </si>
+  <si>
+    <t>1076</t>
+  </si>
+  <si>
+    <t>1112</t>
+  </si>
+  <si>
+    <t>1748</t>
+  </si>
+  <si>
+    <t>1830</t>
+  </si>
+  <si>
+    <t>1110</t>
+  </si>
+  <si>
+    <t>1261</t>
+  </si>
+  <si>
+    <t>812</t>
+  </si>
+  <si>
+    <t>1270</t>
+  </si>
+  <si>
+    <t>1470</t>
+  </si>
+  <si>
+    <t>801</t>
+  </si>
+  <si>
+    <t>948</t>
+  </si>
+  <si>
+    <t>2035</t>
+  </si>
+  <si>
+    <t>1767</t>
+  </si>
+  <si>
+    <t>1800</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>1579</t>
+  </si>
+  <si>
+    <t>1876</t>
+  </si>
+  <si>
+    <t>1282</t>
   </si>
   <si>
     <t>75</t>
